--- a/starter_files/recommended trades.xlsx
+++ b/starter_files/recommended trades.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Recommended Trades" sheetId="1" r:id="rId1"/>
+    <sheet name="Recommended Trades" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="505">
   <si>
     <t>ticker</t>
   </si>
@@ -1534,23 +1533,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$0.00"/>
+    <numFmt numFmtId="160" formatCode="$0.00"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <color indexed="65"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1564,7 +1561,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0A0A23"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF0A0A23"/>
       </patternFill>
     </fill>
   </fills>
@@ -1593,23 +1590,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -1655,13 +1657,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1689,13 +1691,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1892,21 +1894,230 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D502"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="3" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" style="1" width="18.7109375"/>
+    <col customWidth="1" min="2" max="3" style="2" width="18.7109375"/>
+    <col customWidth="1" min="4" max="4" style="3" width="18.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1920,7 +2131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1934,7 +2145,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1948,12 +2159,12 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>188.4</v>
+        <v>188.40000000000001</v>
       </c>
       <c r="C4" s="2">
         <v>11238286434</v>
@@ -1962,7 +2173,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1976,12 +2187,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>154.67</v>
+        <v>154.66999999999999</v>
       </c>
       <c r="C6" s="2">
         <v>280488718752</v>
@@ -1990,7 +2201,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2004,7 +2215,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2018,7 +2229,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2032,12 +2243,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>279.99</v>
+        <v>279.99000000000001</v>
       </c>
       <c r="C10" s="2">
         <v>189702517089</v>
@@ -2046,12 +2257,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>405.01</v>
+        <v>405.00999999999999</v>
       </c>
       <c r="C11" s="2">
         <v>189988146777</v>
@@ -2060,7 +2271,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2074,12 +2285,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>76.98</v>
+        <v>76.980000000000004</v>
       </c>
       <c r="C13" s="2">
         <v>41728279627</v>
@@ -2088,7 +2299,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2102,12 +2313,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>179.85</v>
+        <v>179.84999999999999</v>
       </c>
       <c r="C15" s="2">
         <v>39785483547</v>
@@ -2116,12 +2327,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>88.95999999999999</v>
+        <v>88.959999999999994</v>
       </c>
       <c r="C16" s="2">
         <v>23767237829</v>
@@ -2130,12 +2341,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>94.73</v>
+        <v>94.730000000000004</v>
       </c>
       <c r="C17" s="2">
         <v>48739473510</v>
@@ -2144,12 +2355,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>22.2</v>
+        <v>22.199999999999999</v>
       </c>
       <c r="C18" s="2">
         <v>14370028692</v>
@@ -2158,12 +2369,12 @@
         <v>899</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>58.35</v>
+        <v>58.350000000000001</v>
       </c>
       <c r="C19" s="2">
         <v>37129570684</v>
@@ -2172,12 +2383,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>52.81</v>
+        <v>52.810000000000002</v>
       </c>
       <c r="C20" s="2">
         <v>41891790405</v>
@@ -2186,12 +2397,12 @@
         <v>377</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>6.84</v>
+        <v>6.8399999999999999</v>
       </c>
       <c r="C21" s="2">
         <v>1051293335</v>
@@ -2200,7 +2411,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2214,7 +2425,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2228,12 +2439,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>96.37</v>
+        <v>96.370000000000005</v>
       </c>
       <c r="C24" s="2">
         <v>15193721497</v>
@@ -2242,7 +2453,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2256,12 +2467,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>271.05</v>
+        <v>271.05000000000001</v>
       </c>
       <c r="C26" s="2">
         <v>21354729650</v>
@@ -2270,12 +2481,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>41.45</v>
+        <v>41.450000000000003</v>
       </c>
       <c r="C27" s="2">
         <v>5320079283</v>
@@ -2284,12 +2495,12 @@
         <v>481</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>134.82</v>
+        <v>134.81999999999999</v>
       </c>
       <c r="C28" s="2">
         <v>36677090710</v>
@@ -2298,7 +2509,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2312,12 +2523,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>191.1</v>
+        <v>191.09999999999999</v>
       </c>
       <c r="C30" s="2">
         <v>41710791393</v>
@@ -2326,12 +2537,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>92.06999999999999</v>
+        <v>92.069999999999993</v>
       </c>
       <c r="C31" s="2">
         <v>82823024555</v>
@@ -2340,7 +2551,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -2354,12 +2565,12 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>80.84</v>
+        <v>80.840000000000003</v>
       </c>
       <c r="C33" s="2">
         <v>130132251703</v>
@@ -2368,7 +2579,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -2382,7 +2593,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -2396,12 +2607,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>240.45</v>
+        <v>240.44999999999999</v>
       </c>
       <c r="C36" s="2">
         <v>26957110385</v>
@@ -2410,12 +2621,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>267.08</v>
+        <v>267.07999999999998</v>
       </c>
       <c r="C37" s="2">
         <v>118075672987</v>
@@ -2424,12 +2635,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>119.99</v>
+        <v>119.98999999999999</v>
       </c>
       <c r="C38" s="2">
         <v>1188404727158</v>
@@ -2438,7 +2649,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -2452,7 +2663,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -2466,12 +2677,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>486.46</v>
+        <v>486.45999999999998</v>
       </c>
       <c r="C41" s="2">
         <v>121490086833</v>
@@ -2480,12 +2691,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>280.11</v>
+        <v>280.11000000000001</v>
       </c>
       <c r="C42" s="2">
         <v>60338846677</v>
@@ -2494,7 +2705,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -2508,12 +2719,12 @@
         <v>337</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>35.94</v>
+        <v>35.939999999999998</v>
       </c>
       <c r="C44" s="2">
         <v>11827027699</v>
@@ -2522,12 +2733,12 @@
         <v>555</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>234.17</v>
+        <v>234.16999999999999</v>
       </c>
       <c r="C45" s="2">
         <v>52692040107</v>
@@ -2536,12 +2747,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>67.42</v>
+        <v>67.420000000000002</v>
       </c>
       <c r="C46" s="2">
         <v>40620023509</v>
@@ -2550,12 +2761,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>93.2</v>
+        <v>93.200000000000003</v>
       </c>
       <c r="C47" s="2">
         <v>25106557518</v>
@@ -2564,7 +2775,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -2578,7 +2789,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -2592,12 +2803,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>80.73</v>
+        <v>80.730000000000004</v>
       </c>
       <c r="C50" s="2">
         <v>62871673456</v>
@@ -2606,12 +2817,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>193.99</v>
+        <v>193.99000000000001</v>
       </c>
       <c r="C51" s="2">
         <v>27261579072</v>
@@ -2620,12 +2831,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>503.45</v>
+        <v>503.44999999999999</v>
       </c>
       <c r="C52" s="2">
         <v>206918583212</v>
@@ -2634,12 +2845,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>165.85</v>
+        <v>165.84999999999999</v>
       </c>
       <c r="C53" s="2">
         <v>13739719538</v>
@@ -2648,7 +2859,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -2662,12 +2873,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>148.65</v>
+        <v>148.65000000000001</v>
       </c>
       <c r="C55" s="2">
         <v>110976025908</v>
@@ -2676,7 +2887,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -2690,7 +2901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -2704,12 +2915,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>31.97</v>
+        <v>31.969999999999999</v>
       </c>
       <c r="C58" s="2">
         <v>261622771389</v>
@@ -2718,12 +2929,12 @@
         <v>624</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>67.90000000000001</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="C59" s="2">
         <v>33574732238</v>
@@ -2732,12 +2943,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>71.89</v>
+        <v>71.890000000000001</v>
       </c>
       <c r="C60" s="2">
         <v>16472826098</v>
@@ -2746,7 +2957,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
@@ -2760,7 +2971,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
@@ -2774,7 +2985,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -2785,12 +2996,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>223.9</v>
+        <v>223.90000000000001</v>
       </c>
       <c r="C64" s="2">
         <v>32782939987</v>
@@ -2799,7 +3010,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
@@ -2813,12 +3024,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>42.13</v>
+        <v>42.130000000000003</v>
       </c>
       <c r="C66" s="2">
         <v>34722961418</v>
@@ -2827,12 +3038,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>1828.68</v>
+        <v>1828.6800000000001</v>
       </c>
       <c r="C67" s="2">
         <v>73263935699</v>
@@ -2841,12 +3052,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>29.4</v>
+        <v>29.399999999999999</v>
       </c>
       <c r="C68" s="2">
         <v>29900704671</v>
@@ -2855,12 +3066,12 @@
         <v>678</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>645.15</v>
+        <v>645.14999999999998</v>
       </c>
       <c r="C69" s="2">
         <v>94821636088</v>
@@ -2869,12 +3080,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>71.26000000000001</v>
+        <v>71.260000000000005</v>
       </c>
       <c r="C70" s="2">
         <v>23011789420</v>
@@ -2883,12 +3094,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>76.91</v>
+        <v>76.909999999999997</v>
       </c>
       <c r="C71" s="2">
         <v>162508336225</v>
@@ -2897,12 +3108,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>150.8</v>
+        <v>150.80000000000001</v>
       </c>
       <c r="C72" s="2">
         <v>17851468983</v>
@@ -2911,23 +3122,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>292.01</v>
+        <v>292.00999999999999</v>
       </c>
       <c r="D73" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>37.86</v>
+        <v>37.859999999999999</v>
       </c>
       <c r="C74" s="2">
         <v>55055118379</v>
@@ -2936,12 +3147,12 @@
         <v>527</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>35.27</v>
+        <v>35.270000000000003</v>
       </c>
       <c r="C75" s="2">
         <v>8338487715</v>
@@ -2950,12 +3161,12 @@
         <v>565</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>89.72</v>
+        <v>89.719999999999999</v>
       </c>
       <c r="C76" s="2">
         <v>14603112605</v>
@@ -2964,12 +3175,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>47.38</v>
+        <v>47.380000000000003</v>
       </c>
       <c r="C77" s="2">
         <v>94235984927</v>
@@ -2978,12 +3189,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78">
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>36.88</v>
+        <v>36.880000000000003</v>
       </c>
       <c r="C78" s="2">
         <v>17648246448</v>
@@ -2992,12 +3203,12 @@
         <v>541</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>53.21</v>
+        <v>53.210000000000001</v>
       </c>
       <c r="C79" s="2">
         <v>14838449599</v>
@@ -3006,12 +3217,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>36.34</v>
+        <v>36.340000000000003</v>
       </c>
       <c r="C80" s="2">
         <v>31105352031</v>
@@ -3020,12 +3231,12 @@
         <v>549</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81">
       <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>183.6</v>
+        <v>183.59999999999999</v>
       </c>
       <c r="C81" s="2">
         <v>99127938841</v>
@@ -3034,12 +3245,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>201.52</v>
+        <v>201.52000000000001</v>
       </c>
       <c r="C82" s="2">
         <v>83096058386</v>
@@ -3048,7 +3259,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83">
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
@@ -3062,12 +3273,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>77.53</v>
+        <v>77.530000000000001</v>
       </c>
       <c r="C84" s="2">
         <v>25970927819</v>
@@ -3076,12 +3287,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>179.4</v>
+        <v>179.40000000000001</v>
       </c>
       <c r="C85" s="2">
         <v>75090324069</v>
@@ -3090,12 +3301,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86">
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>9.369999999999999</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="C86" s="2">
         <v>10131413073</v>
@@ -3104,12 +3315,12 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87">
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>160.54</v>
+        <v>160.53999999999999</v>
       </c>
       <c r="C87" s="2">
         <v>45108062534</v>
@@ -3118,7 +3329,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88">
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
@@ -3132,12 +3343,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89">
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>117.43</v>
+        <v>117.43000000000001</v>
       </c>
       <c r="C89" s="2">
         <v>12336497457</v>
@@ -3146,12 +3357,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>96.78</v>
+        <v>96.780000000000001</v>
       </c>
       <c r="C90" s="2">
         <v>28490688247</v>
@@ -3160,7 +3371,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91">
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
@@ -3174,7 +3385,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
@@ -3188,12 +3399,12 @@
         <v>542</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>96.91</v>
+        <v>96.909999999999997</v>
       </c>
       <c r="C93" s="2">
         <v>23164107966</v>
@@ -3202,7 +3413,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
@@ -3216,12 +3427,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95">
       <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>483.53</v>
+        <v>483.52999999999997</v>
       </c>
       <c r="C95" s="2">
         <v>79315226814</v>
@@ -3230,12 +3441,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96">
       <c r="A96" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>281.2</v>
+        <v>281.19999999999999</v>
       </c>
       <c r="C96" s="2">
         <v>92910153635</v>
@@ -3244,7 +3455,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
@@ -3258,12 +3469,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98">
       <c r="A98" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>82.23999999999999</v>
+        <v>82.239999999999995</v>
       </c>
       <c r="C98" s="2">
         <v>67453011142</v>
@@ -3272,7 +3483,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99">
       <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
@@ -3286,12 +3497,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100">
       <c r="A100" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>74.56999999999999</v>
+        <v>74.569999999999993</v>
       </c>
       <c r="C100" s="2">
         <v>9747153658</v>
@@ -3300,12 +3511,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101">
       <c r="A101" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>41.41</v>
+        <v>41.409999999999997</v>
       </c>
       <c r="C101" s="2">
         <v>184121121916</v>
@@ -3314,12 +3525,12 @@
         <v>482</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102">
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>209.9</v>
+        <v>209.90000000000001</v>
       </c>
       <c r="C102" s="2">
         <v>75332926429</v>
@@ -3328,7 +3539,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103">
       <c r="A103" s="1" t="s">
         <v>105</v>
       </c>
@@ -3342,12 +3553,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104">
       <c r="A104" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>204.02</v>
+        <v>204.02000000000001</v>
       </c>
       <c r="C104" s="2">
         <v>29351494245</v>
@@ -3356,12 +3567,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105">
       <c r="A105" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>68.88</v>
+        <v>68.879999999999995</v>
       </c>
       <c r="C105" s="2">
         <v>19547555954</v>
@@ -3370,12 +3581,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106">
       <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>88.34</v>
+        <v>88.340000000000003</v>
       </c>
       <c r="C106" s="2">
         <v>52933440882</v>
@@ -3384,7 +3595,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107">
       <c r="A107" s="1" t="s">
         <v>109</v>
       </c>
@@ -3398,7 +3609,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108">
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
@@ -3412,12 +3623,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109">
       <c r="A109" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B109" s="2">
-        <v>22.46</v>
+        <v>22.460000000000001</v>
       </c>
       <c r="C109" s="2">
         <v>9024812079</v>
@@ -3426,12 +3637,12 @@
         <v>888</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110">
       <c r="A110" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>312.34</v>
+        <v>312.33999999999997</v>
       </c>
       <c r="C110" s="2">
         <v>16897625889</v>
@@ -3440,12 +3651,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111">
       <c r="A111" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>88.70999999999999</v>
+        <v>88.709999999999994</v>
       </c>
       <c r="C111" s="2">
         <v>112443382018</v>
@@ -3454,12 +3665,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112">
       <c r="A112" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>505.72</v>
+        <v>505.72000000000003</v>
       </c>
       <c r="C112" s="2">
         <v>232952407797</v>
@@ -3468,7 +3679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113">
       <c r="A113" s="1" t="s">
         <v>115</v>
       </c>
@@ -3482,12 +3693,12 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114">
       <c r="A114" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>49.19</v>
+        <v>49.189999999999998</v>
       </c>
       <c r="C114" s="2">
         <v>14931771782</v>
@@ -3496,12 +3707,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115">
       <c r="A115" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>120.07</v>
+        <v>120.06999999999999</v>
       </c>
       <c r="C115" s="2">
         <v>27356143282</v>
@@ -3510,12 +3721,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116">
       <c r="A116" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>177.9</v>
+        <v>177.90000000000001</v>
       </c>
       <c r="C116" s="2">
         <v>179554943577</v>
@@ -3524,12 +3735,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117">
       <c r="A117" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>45.26</v>
+        <v>45.259999999999998</v>
       </c>
       <c r="C117" s="2">
         <v>184331417573</v>
@@ -3538,12 +3749,12 @@
         <v>441</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118">
       <c r="A118" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>30.26</v>
+        <v>30.260000000000002</v>
       </c>
       <c r="C118" s="2">
         <v>63960641638</v>
@@ -3552,12 +3763,12 @@
         <v>659</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119">
       <c r="A119" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>386.57</v>
+        <v>386.56999999999999</v>
       </c>
       <c r="C119" s="2">
         <v>40484577703</v>
@@ -3566,7 +3777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120">
       <c r="A120" s="1" t="s">
         <v>122</v>
       </c>
@@ -3580,12 +3791,12 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121">
       <c r="A121" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>69.81</v>
+        <v>69.810000000000002</v>
       </c>
       <c r="C121" s="2">
         <v>35277763526</v>
@@ -3594,7 +3805,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122">
       <c r="A122" s="1" t="s">
         <v>124</v>
       </c>
@@ -3608,12 +3819,12 @@
         <v>374</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123">
       <c r="A123" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>101.54</v>
+        <v>101.54000000000001</v>
       </c>
       <c r="C123" s="2">
         <v>12589299334</v>
@@ -3622,12 +3833,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124">
       <c r="A124" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>97.18000000000001</v>
+        <v>97.180000000000007</v>
       </c>
       <c r="C124" s="2">
         <v>128780795064</v>
@@ -3636,7 +3847,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125">
       <c r="A125" s="1" t="s">
         <v>127</v>
       </c>
@@ -3650,12 +3861,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126">
       <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B126" s="2">
-        <v>67.40000000000001</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="C126" s="2">
         <v>13253391499</v>
@@ -3664,12 +3875,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127">
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>80.34</v>
+        <v>80.340000000000003</v>
       </c>
       <c r="C127" s="2">
         <v>64915985971</v>
@@ -3678,12 +3889,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128">
       <c r="A128" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>31.12</v>
+        <v>31.120000000000001</v>
       </c>
       <c r="C128" s="2">
         <v>19441763085</v>
@@ -3692,12 +3903,12 @@
         <v>641</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129">
       <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>57.52</v>
+        <v>57.520000000000003</v>
       </c>
       <c r="C129" s="2">
         <v>28913459057</v>
@@ -3706,12 +3917,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130">
       <c r="A130" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>317.15</v>
+        <v>317.14999999999998</v>
       </c>
       <c r="C130" s="2">
         <v>95603315845</v>
@@ -3720,7 +3931,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131">
       <c r="A131" s="1" t="s">
         <v>133</v>
       </c>
@@ -3734,12 +3945,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132">
       <c r="A132" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>261.28</v>
+        <v>261.27999999999997</v>
       </c>
       <c r="C132" s="2">
         <v>58421407292</v>
@@ -3748,12 +3959,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133">
       <c r="A133" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>136.1</v>
+        <v>136.09999999999999</v>
       </c>
       <c r="C133" s="2">
         <v>16072693048</v>
@@ -3762,12 +3973,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134">
       <c r="A134" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>74.48</v>
+        <v>74.480000000000004</v>
       </c>
       <c r="C134" s="2">
         <v>26353338731</v>
@@ -3776,12 +3987,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135">
       <c r="A135" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>270.4</v>
+        <v>270.39999999999998</v>
       </c>
       <c r="C135" s="2">
         <v>200400803365</v>
@@ -3790,12 +4001,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136">
       <c r="A136" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>96.78</v>
+        <v>96.780000000000001</v>
       </c>
       <c r="C136" s="2">
         <v>177938938787</v>
@@ -3804,7 +4015,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137">
       <c r="A137" s="1" t="s">
         <v>139</v>
       </c>
@@ -3815,7 +4026,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138">
       <c r="A138" s="1" t="s">
         <v>140</v>
       </c>
@@ -3829,7 +4040,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139">
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
@@ -3843,7 +4054,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140">
       <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
@@ -3857,7 +4068,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141">
       <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
@@ -3871,12 +4082,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142">
       <c r="A142" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>51.78</v>
+        <v>51.780000000000001</v>
       </c>
       <c r="C142" s="2">
         <v>38845768378</v>
@@ -3885,12 +4096,12 @@
         <v>385</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143">
       <c r="A143" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>416.93</v>
+        <v>416.93000000000001</v>
       </c>
       <c r="C143" s="2">
         <v>14791406915</v>
@@ -3899,12 +4110,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144">
       <c r="A144" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>57.95</v>
+        <v>57.950000000000003</v>
       </c>
       <c r="C144" s="2">
         <v>23012107099</v>
@@ -3913,7 +4124,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145">
       <c r="A145" s="1" t="s">
         <v>147</v>
       </c>
@@ -3927,7 +4138,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146">
       <c r="A146" s="1" t="s">
         <v>148</v>
       </c>
@@ -3941,12 +4152,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147">
       <c r="A147" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>110.4</v>
+        <v>110.40000000000001</v>
       </c>
       <c r="C147" s="2">
         <v>83585950759</v>
@@ -3955,12 +4166,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148">
       <c r="A148" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>85.17</v>
+        <v>85.170000000000002</v>
       </c>
       <c r="C148" s="2">
         <v>8221953262</v>
@@ -3969,12 +4180,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149">
       <c r="A149" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>54.97</v>
+        <v>54.969999999999999</v>
       </c>
       <c r="C149" s="2">
         <v>37463832977</v>
@@ -3983,12 +4194,12 @@
         <v>363</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150">
       <c r="A150" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>30.45</v>
+        <v>30.449999999999999</v>
       </c>
       <c r="C150" s="2">
         <v>7174359409</v>
@@ -3997,12 +4208,12 @@
         <v>655</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151">
       <c r="A151" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>81.79000000000001</v>
+        <v>81.790000000000006</v>
       </c>
       <c r="C151" s="2">
         <v>8041864667</v>
@@ -4011,12 +4222,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152">
       <c r="A152" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>125.65</v>
+        <v>125.65000000000001</v>
       </c>
       <c r="C152" s="2">
         <v>35700281329</v>
@@ -4025,12 +4236,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153">
       <c r="A153" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>44.19</v>
+        <v>44.189999999999998</v>
       </c>
       <c r="C153" s="2">
         <v>24579312934</v>
@@ -4039,12 +4250,12 @@
         <v>451</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154">
       <c r="A154" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>163.2</v>
+        <v>163.19999999999999</v>
       </c>
       <c r="C154" s="2">
         <v>46345341942</v>
@@ -4053,12 +4264,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155">
       <c r="A155" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>96.03</v>
+        <v>96.030000000000001</v>
       </c>
       <c r="C155" s="2">
         <v>33589722879</v>
@@ -4067,12 +4278,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156">
       <c r="A156" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>196.49</v>
+        <v>196.49000000000001</v>
       </c>
       <c r="C156" s="2">
         <v>23505830591</v>
@@ -4081,12 +4292,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157">
       <c r="A157" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>65.31999999999999</v>
+        <v>65.319999999999993</v>
       </c>
       <c r="C157" s="2">
         <v>24494572549</v>
@@ -4095,12 +4306,12 @@
         <v>305</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158">
       <c r="A158" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>261.67</v>
+        <v>261.67000000000002</v>
       </c>
       <c r="C158" s="2">
         <v>93678883499</v>
@@ -4109,12 +4320,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159">
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>93.86</v>
+        <v>93.859999999999999</v>
       </c>
       <c r="C159" s="2">
         <v>11685048505</v>
@@ -4123,12 +4334,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160">
       <c r="A160" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>83.98999999999999</v>
+        <v>83.989999999999995</v>
       </c>
       <c r="C160" s="2">
         <v>48005183543</v>
@@ -4137,7 +4348,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161">
       <c r="A161" s="1" t="s">
         <v>163</v>
       </c>
@@ -4151,12 +4362,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162">
       <c r="A162" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>652.35</v>
+        <v>652.35000000000002</v>
       </c>
       <c r="C162" s="2">
         <v>61895238554</v>
@@ -4165,12 +4376,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163">
       <c r="A163" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>71.76000000000001</v>
+        <v>71.760000000000005</v>
       </c>
       <c r="C163" s="2">
         <v>26916856476</v>
@@ -4179,12 +4390,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164">
       <c r="A164" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>84.95</v>
+        <v>84.950000000000003</v>
       </c>
       <c r="C164" s="2">
         <v>29245360843</v>
@@ -4193,12 +4404,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165">
       <c r="A165" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>268.1</v>
+        <v>268.10000000000002</v>
       </c>
       <c r="C165" s="2">
         <v>17392496293</v>
@@ -4207,12 +4418,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166">
       <c r="A166" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>50.35</v>
+        <v>50.350000000000001</v>
       </c>
       <c r="C166" s="2">
         <v>11111106270</v>
@@ -4221,12 +4432,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167">
       <c r="A167" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B167" s="2">
-        <v>128.29</v>
+        <v>128.28999999999999</v>
       </c>
       <c r="C167" s="2">
         <v>52800241803</v>
@@ -4235,7 +4446,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168">
       <c r="A168" s="1" t="s">
         <v>170</v>
       </c>
@@ -4249,7 +4460,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169">
       <c r="A169" s="1" t="s">
         <v>171</v>
       </c>
@@ -4263,12 +4474,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170">
       <c r="A170" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>99.34999999999999</v>
+        <v>99.349999999999994</v>
       </c>
       <c r="C170" s="2">
         <v>63195482808</v>
@@ -4277,7 +4488,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171">
       <c r="A171" s="1" t="s">
         <v>173</v>
       </c>
@@ -4291,12 +4502,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172">
       <c r="A172" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>101.15</v>
+        <v>101.15000000000001</v>
       </c>
       <c r="C172" s="2">
         <v>17124066263</v>
@@ -4305,12 +4516,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173">
       <c r="A173" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>96.78</v>
+        <v>96.780000000000001</v>
       </c>
       <c r="C173" s="2">
         <v>15092407562</v>
@@ -4319,12 +4530,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174">
       <c r="A174" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>178.79</v>
+        <v>178.78999999999999</v>
       </c>
       <c r="C174" s="2">
         <v>23796825505</v>
@@ -4333,7 +4544,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175">
       <c r="A175" s="1" t="s">
         <v>177</v>
       </c>
@@ -4347,7 +4558,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176">
       <c r="A176" s="1" t="s">
         <v>178</v>
       </c>
@@ -4361,12 +4572,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177">
       <c r="A177" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>53.1</v>
+        <v>53.100000000000001</v>
       </c>
       <c r="C177" s="2">
         <v>29463688661</v>
@@ -4375,7 +4586,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178">
       <c r="A178" s="1" t="s">
         <v>180</v>
       </c>
@@ -4389,12 +4600,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179">
       <c r="A179" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B179" s="2">
-        <v>62.12</v>
+        <v>62.119999999999997</v>
       </c>
       <c r="C179" s="2">
         <v>8274234157</v>
@@ -4403,7 +4614,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180">
       <c r="A180" s="1" t="s">
         <v>182</v>
       </c>
@@ -4417,7 +4628,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181">
       <c r="A181" s="1" t="s">
         <v>183</v>
       </c>
@@ -4431,12 +4642,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182">
       <c r="A182" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>37.91</v>
+        <v>37.909999999999997</v>
       </c>
       <c r="C182" s="2">
         <v>21362531904</v>
@@ -4445,7 +4656,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183">
       <c r="A183" s="1" t="s">
         <v>185</v>
       </c>
@@ -4459,12 +4670,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184">
       <c r="A184" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>98.27</v>
+        <v>98.269999999999996</v>
       </c>
       <c r="C184" s="2">
         <v>57552398439</v>
@@ -4473,12 +4684,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185">
       <c r="A185" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>93.65000000000001</v>
+        <v>93.650000000000006</v>
       </c>
       <c r="C185" s="2">
         <v>60754806832</v>
@@ -4487,12 +4698,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186">
       <c r="A186" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B186" s="2">
-        <v>34.63</v>
+        <v>34.630000000000003</v>
       </c>
       <c r="C186" s="2">
         <v>23179359755</v>
@@ -4501,12 +4712,12 @@
         <v>576</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187">
       <c r="A187" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>59.76</v>
+        <v>59.759999999999998</v>
       </c>
       <c r="C187" s="2">
         <v>7591802805</v>
@@ -4515,12 +4726,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188">
       <c r="A188" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B188" s="2">
-        <v>29.1</v>
+        <v>29.100000000000001</v>
       </c>
       <c r="C188" s="2">
         <v>3815896889</v>
@@ -4529,12 +4740,12 @@
         <v>685</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189">
       <c r="A189" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>219.04</v>
+        <v>219.03999999999999</v>
       </c>
       <c r="C189" s="2">
         <v>17189534245</v>
@@ -4543,7 +4754,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190">
       <c r="A190" s="1" t="s">
         <v>192</v>
       </c>
@@ -4557,12 +4768,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191">
       <c r="A191" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>30.97</v>
+        <v>30.969999999999999</v>
       </c>
       <c r="C191" s="2">
         <v>18066080826</v>
@@ -4571,12 +4782,12 @@
         <v>644</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192">
       <c r="A192" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B192" s="2">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="C192" s="2">
         <v>18451206058</v>
@@ -4585,7 +4796,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193">
       <c r="A193" s="1" t="s">
         <v>195</v>
       </c>
@@ -4599,12 +4810,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194">
       <c r="A194" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>97.84999999999999</v>
+        <v>97.849999999999994</v>
       </c>
       <c r="C194" s="2">
         <v>7774928907</v>
@@ -4613,12 +4824,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195">
       <c r="A195" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>6.39</v>
+        <v>6.3899999999999997</v>
       </c>
       <c r="C195" s="2">
         <v>2955662350</v>
@@ -4627,12 +4838,12 @@
         <v>3123</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196">
       <c r="A196" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B196" s="2">
-        <v>63.9</v>
+        <v>63.899999999999999</v>
       </c>
       <c r="C196" s="2">
         <v>10247807779</v>
@@ -4641,12 +4852,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197">
       <c r="A197" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>57.84</v>
+        <v>57.840000000000003</v>
       </c>
       <c r="C197" s="2">
         <v>20508598468</v>
@@ -4655,7 +4866,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198">
       <c r="A198" s="1" t="s">
         <v>200</v>
       </c>
@@ -4669,12 +4880,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199">
       <c r="A199" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>63.42</v>
+        <v>63.420000000000002</v>
       </c>
       <c r="C199" s="2">
         <v>72844820026</v>
@@ -4683,12 +4894,12 @@
         <v>314</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200">
       <c r="A200" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>63.06</v>
+        <v>63.060000000000002</v>
       </c>
       <c r="C200" s="2">
         <v>79058349764</v>
@@ -4697,12 +4908,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201">
       <c r="A201" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>75.72</v>
+        <v>75.719999999999999</v>
       </c>
       <c r="C201" s="2">
         <v>45881709425</v>
@@ -4711,7 +4922,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202">
       <c r="A202" s="1" t="s">
         <v>204</v>
       </c>
@@ -4725,12 +4936,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203">
       <c r="A203" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>33.63</v>
+        <v>33.630000000000003</v>
       </c>
       <c r="C203" s="2">
         <v>27746034883</v>
@@ -4739,12 +4950,12 @@
         <v>593</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204">
       <c r="A204" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>32.81</v>
+        <v>32.810000000000002</v>
       </c>
       <c r="C204" s="2">
         <v>47691869860</v>
@@ -4753,12 +4964,12 @@
         <v>608</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205">
       <c r="A205" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>2429.09</v>
+        <v>2429.0900000000001</v>
       </c>
       <c r="C205" s="2">
         <v>1656097662233</v>
@@ -4767,12 +4978,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206">
       <c r="A206" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>2427.32</v>
+        <v>2427.3200000000002</v>
       </c>
       <c r="C206" s="2">
         <v>1699771994124</v>
@@ -4781,12 +4992,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207">
       <c r="A207" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>140.93</v>
+        <v>140.93000000000001</v>
       </c>
       <c r="C207" s="2">
         <v>20104844278</v>
@@ -4795,7 +5006,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208">
       <c r="A208" s="1" t="s">
         <v>210</v>
       </c>
@@ -4809,7 +5020,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209">
       <c r="A209" s="1" t="s">
         <v>211</v>
       </c>
@@ -4823,7 +5034,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210">
       <c r="A210" s="1" t="s">
         <v>212</v>
       </c>
@@ -4837,12 +5048,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211">
       <c r="A211" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>303.65</v>
+        <v>303.64999999999998</v>
       </c>
       <c r="C211" s="2">
         <v>105329239775</v>
@@ -4851,12 +5062,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212">
       <c r="A212" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>483.57</v>
+        <v>483.56999999999999</v>
       </c>
       <c r="C212" s="2">
         <v>24573029714</v>
@@ -4865,12 +5076,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213">
       <c r="A213" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>31.15</v>
+        <v>31.149999999999999</v>
       </c>
       <c r="C213" s="2">
         <v>27339759826</v>
@@ -4879,12 +5090,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214">
       <c r="A214" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>84.09999999999999</v>
+        <v>84.099999999999994</v>
       </c>
       <c r="C214" s="2">
         <v>12010884093</v>
@@ -4893,12 +5104,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215">
       <c r="A215" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>12.47</v>
+        <v>12.470000000000001</v>
       </c>
       <c r="C215" s="2">
         <v>18270412403</v>
@@ -4907,12 +5118,12 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216">
       <c r="A216" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>11.22</v>
+        <v>11.220000000000001</v>
       </c>
       <c r="C216" s="2">
         <v>3880146751</v>
@@ -4921,12 +5132,12 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217">
       <c r="A217" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>179.1</v>
+        <v>179.09999999999999</v>
       </c>
       <c r="C217" s="2">
         <v>53164285967</v>
@@ -4935,12 +5146,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218">
       <c r="A218" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>288.47</v>
+        <v>288.47000000000003</v>
       </c>
       <c r="C218" s="2">
         <v>296071868491</v>
@@ -4949,7 +5160,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219">
       <c r="A219" s="1" t="s">
         <v>221</v>
       </c>
@@ -4963,12 +5174,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220">
       <c r="A220" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>68.62</v>
+        <v>68.620000000000005</v>
       </c>
       <c r="C220" s="2">
         <v>22324185242</v>
@@ -4977,7 +5188,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221">
       <c r="A221" s="1" t="s">
         <v>223</v>
       </c>
@@ -4991,7 +5202,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222">
       <c r="A222" s="1" t="s">
         <v>224</v>
       </c>
@@ -5005,12 +5216,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223">
       <c r="A223" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>74.73</v>
+        <v>74.730000000000004</v>
       </c>
       <c r="C223" s="2">
         <v>18685926810</v>
@@ -5019,12 +5230,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224">
       <c r="A224" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>179.07</v>
+        <v>179.06999999999999</v>
       </c>
       <c r="C224" s="2">
         <v>123507861332</v>
@@ -5033,12 +5244,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225">
       <c r="A225" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>13.3</v>
+        <v>13.300000000000001</v>
       </c>
       <c r="C225" s="2">
         <v>17276688563</v>
@@ -5047,12 +5258,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226">
       <c r="A226" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>33.17</v>
+        <v>33.170000000000002</v>
       </c>
       <c r="C226" s="2">
         <v>33452691196</v>
@@ -5061,12 +5272,12 @@
         <v>601</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227">
       <c r="A227" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>38.81</v>
+        <v>38.810000000000002</v>
       </c>
       <c r="C227" s="2">
         <v>5956223755</v>
@@ -5075,12 +5286,12 @@
         <v>514</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228">
       <c r="A228" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>47.59</v>
+        <v>47.590000000000003</v>
       </c>
       <c r="C228" s="2">
         <v>27209187323</v>
@@ -5089,12 +5300,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229">
       <c r="A229" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>79.23</v>
+        <v>79.230000000000004</v>
       </c>
       <c r="C229" s="2">
         <v>10755913450</v>
@@ -5103,12 +5314,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230">
       <c r="A230" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>16.45</v>
+        <v>16.449999999999999</v>
       </c>
       <c r="C230" s="2">
         <v>11706046281</v>
@@ -5117,7 +5328,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231">
       <c r="A231" s="1" t="s">
         <v>233</v>
       </c>
@@ -5131,12 +5342,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232">
       <c r="A232" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B232" s="2">
-        <v>491.71</v>
+        <v>491.70999999999998</v>
       </c>
       <c r="C232" s="2">
         <v>61585865398</v>
@@ -5145,12 +5356,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233">
       <c r="A233" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>33.88</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="C233" s="2">
         <v>13985797174</v>
@@ -5159,12 +5370,12 @@
         <v>589</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234">
       <c r="A234" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>140.76</v>
+        <v>140.75999999999999</v>
       </c>
       <c r="C234" s="2">
         <v>130368231321</v>
@@ -5173,7 +5384,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235">
       <c r="A235" s="1" t="s">
         <v>237</v>
       </c>
@@ -5187,12 +5398,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236">
       <c r="A236" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>382.8</v>
+        <v>382.80000000000001</v>
       </c>
       <c r="C236" s="2">
         <v>31941374987</v>
@@ -5201,12 +5412,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237">
       <c r="A237" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>192.04</v>
+        <v>192.03999999999999</v>
       </c>
       <c r="C237" s="2">
         <v>14645132298</v>
@@ -5215,7 +5426,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238">
       <c r="A238" s="1" t="s">
         <v>240</v>
       </c>
@@ -5229,7 +5440,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239">
       <c r="A239" s="1" t="s">
         <v>241</v>
       </c>
@@ -5243,12 +5454,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240">
       <c r="A240" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>81.88</v>
+        <v>81.879999999999995</v>
       </c>
       <c r="C240" s="2">
         <v>17867248531</v>
@@ -5257,7 +5468,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241">
       <c r="A241" s="1" t="s">
         <v>243</v>
       </c>
@@ -5271,12 +5482,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242">
       <c r="A242" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>39.84</v>
+        <v>39.840000000000003</v>
       </c>
       <c r="C242" s="2">
         <v>157834872399</v>
@@ -5285,12 +5496,12 @@
         <v>501</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243">
       <c r="A243" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B243" s="2">
-        <v>419.64</v>
+        <v>419.63999999999999</v>
       </c>
       <c r="C243" s="2">
         <v>115916315361</v>
@@ -5299,12 +5510,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244">
       <c r="A244" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>44.44</v>
+        <v>44.439999999999998</v>
       </c>
       <c r="C244" s="2">
         <v>16170159201</v>
@@ -5313,12 +5524,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245">
       <c r="A245" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>28.58</v>
+        <v>28.579999999999998</v>
       </c>
       <c r="C245" s="2">
         <v>11537497601</v>
@@ -5327,12 +5538,12 @@
         <v>698</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246">
       <c r="A246" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>97.81</v>
+        <v>97.810000000000002</v>
       </c>
       <c r="C246" s="2">
         <v>5064668593</v>
@@ -5341,12 +5552,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247">
       <c r="A247" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>225.48</v>
+        <v>225.47999999999999</v>
       </c>
       <c r="C247" s="2">
         <v>42527097511</v>
@@ -5355,12 +5566,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248">
       <c r="A248" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>43.31</v>
+        <v>43.310000000000002</v>
       </c>
       <c r="C248" s="2">
         <v>17953610255</v>
@@ -5369,12 +5580,12 @@
         <v>460</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249">
       <c r="A249" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>49.1</v>
+        <v>49.100000000000001</v>
       </c>
       <c r="C249" s="2">
         <v>14392892245</v>
@@ -5383,12 +5594,12 @@
         <v>406</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250">
       <c r="A250" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>211.65</v>
+        <v>211.65000000000001</v>
       </c>
       <c r="C250" s="2">
         <v>75594786242</v>
@@ -5397,12 +5608,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251">
       <c r="A251" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>247.15</v>
+        <v>247.15000000000001</v>
       </c>
       <c r="C251" s="2">
         <v>19898362250</v>
@@ -5411,12 +5622,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252">
       <c r="A252" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>182.65</v>
+        <v>182.65000000000001</v>
       </c>
       <c r="C252" s="2">
         <v>58014021986</v>
@@ -5425,12 +5636,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253">
       <c r="A253" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>16.51</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="C253" s="2">
         <v>7421656262</v>
@@ -5439,12 +5650,12 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254">
       <c r="A254" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>129.18</v>
+        <v>129.18000000000001</v>
       </c>
       <c r="C254" s="2">
         <v>16666221923</v>
@@ -5453,12 +5664,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255">
       <c r="A255" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>171.7</v>
+        <v>171.69999999999999</v>
       </c>
       <c r="C255" s="2">
         <v>17762030045</v>
@@ -5467,7 +5678,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256">
       <c r="A256" s="1" t="s">
         <v>258</v>
       </c>
@@ -5481,7 +5692,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257">
       <c r="A257" s="1" t="s">
         <v>259</v>
       </c>
@@ -5495,12 +5706,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258">
       <c r="A258" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>186.61</v>
+        <v>186.61000000000001</v>
       </c>
       <c r="C258" s="2">
         <v>488126133658</v>
@@ -5509,12 +5720,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259">
       <c r="A259" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>29.03</v>
+        <v>29.030000000000001</v>
       </c>
       <c r="C259" s="2">
         <v>9329900805</v>
@@ -5523,12 +5734,12 @@
         <v>687</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260">
       <c r="A260" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>118.51</v>
+        <v>118.51000000000001</v>
       </c>
       <c r="C260" s="2">
         <v>351048347725</v>
@@ -5537,12 +5748,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261">
       <c r="A261" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B261" s="2">
-        <v>73.84</v>
+        <v>73.840000000000003</v>
       </c>
       <c r="C261" s="2">
         <v>24761001718</v>
@@ -5551,12 +5762,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262">
       <c r="A262" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>17.62</v>
+        <v>17.620000000000001</v>
       </c>
       <c r="C262" s="2">
         <v>16439178060</v>
@@ -5565,12 +5776,12 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263">
       <c r="A263" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>143.8</v>
+        <v>143.80000000000001</v>
       </c>
       <c r="C263" s="2">
         <v>26242259662</v>
@@ -5579,7 +5790,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264">
       <c r="A264" s="1" t="s">
         <v>266</v>
       </c>
@@ -5593,12 +5804,12 @@
         <v>511</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265">
       <c r="A265" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>20.36</v>
+        <v>20.359999999999999</v>
       </c>
       <c r="C265" s="2">
         <v>12445256674</v>
@@ -5607,12 +5818,12 @@
         <v>980</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266">
       <c r="A266" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>326.8</v>
+        <v>326.80000000000001</v>
       </c>
       <c r="C266" s="2">
         <v>48656169679</v>
@@ -5621,12 +5832,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267">
       <c r="A267" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>138.4</v>
+        <v>138.40000000000001</v>
       </c>
       <c r="C267" s="2">
         <v>46000716995</v>
@@ -5635,12 +5846,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268">
       <c r="A268" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>17.01</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="C268" s="2">
         <v>38980965751</v>
@@ -5649,12 +5860,12 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269">
       <c r="A269" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>94.81999999999999</v>
+        <v>94.819999999999993</v>
       </c>
       <c r="C269" s="2">
         <v>14994670272</v>
@@ -5663,12 +5874,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270">
       <c r="A270" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>65.01000000000001</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="C270" s="2">
         <v>280816833643</v>
@@ -5677,12 +5888,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271">
       <c r="A271" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>48.74</v>
+        <v>48.740000000000002</v>
       </c>
       <c r="C271" s="2">
         <v>34395801279</v>
@@ -5691,7 +5902,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272">
       <c r="A272" s="1" t="s">
         <v>274</v>
       </c>
@@ -5705,12 +5916,12 @@
         <v>677</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273">
       <c r="A273" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>296.08</v>
+        <v>296.07999999999998</v>
       </c>
       <c r="C273" s="2">
         <v>27602026584</v>
@@ -5719,12 +5930,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274">
       <c r="A274" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>59.99</v>
+        <v>59.990000000000002</v>
       </c>
       <c r="C274" s="2">
         <v>14739555891</v>
@@ -5733,12 +5944,12 @@
         <v>332</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275">
       <c r="A275" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B275" s="2">
-        <v>81.93000000000001</v>
+        <v>81.930000000000007</v>
       </c>
       <c r="C275" s="2">
         <v>22282585643</v>
@@ -5747,7 +5958,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276">
       <c r="A276" s="1" t="s">
         <v>278</v>
       </c>
@@ -5761,12 +5972,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277">
       <c r="A277" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B277" s="2">
-        <v>36.27</v>
+        <v>36.270000000000003</v>
       </c>
       <c r="C277" s="2">
         <v>5011576955</v>
@@ -5775,12 +5986,12 @@
         <v>550</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278">
       <c r="A278" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>80.53</v>
+        <v>80.530000000000001</v>
       </c>
       <c r="C278" s="2">
         <v>22771213730</v>
@@ -5789,12 +6000,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279">
       <c r="A279" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>243.98</v>
+        <v>243.97999999999999</v>
       </c>
       <c r="C279" s="2">
         <v>23503340783</v>
@@ -5803,12 +6014,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280">
       <c r="A280" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>244.85</v>
+        <v>244.84999999999999</v>
       </c>
       <c r="C280" s="2">
         <v>46530798758</v>
@@ -5817,12 +6028,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281">
       <c r="A281" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>283.64</v>
+        <v>283.63999999999999</v>
       </c>
       <c r="C281" s="2">
         <v>143697873041</v>
@@ -5831,12 +6042,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282">
       <c r="A282" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>53.67</v>
+        <v>53.670000000000002</v>
       </c>
       <c r="C282" s="2">
         <v>14718729677</v>
@@ -5845,12 +6056,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283">
       <c r="A283" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>339.99</v>
+        <v>339.99000000000001</v>
       </c>
       <c r="C283" s="2">
         <v>323859738016</v>
@@ -5859,12 +6070,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284">
       <c r="A284" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>427.84</v>
+        <v>427.83999999999997</v>
       </c>
       <c r="C284" s="2">
         <v>115955113098</v>
@@ -5873,12 +6084,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285">
       <c r="A285" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>48.92</v>
+        <v>48.920000000000002</v>
       </c>
       <c r="C285" s="2">
         <v>8407875920</v>
@@ -5887,12 +6098,12 @@
         <v>408</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286">
       <c r="A286" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>58.41</v>
+        <v>58.409999999999997</v>
       </c>
       <c r="C286" s="2">
         <v>14572692127</v>
@@ -5901,7 +6112,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287">
       <c r="A287" s="1" t="s">
         <v>289</v>
       </c>
@@ -5915,7 +6126,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288">
       <c r="A288" s="1" t="s">
         <v>290</v>
       </c>
@@ -5929,12 +6140,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289">
       <c r="A289" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>38.4</v>
+        <v>38.399999999999999</v>
       </c>
       <c r="C289" s="2">
         <v>21972603557</v>
@@ -5943,12 +6154,12 @@
         <v>519</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290">
       <c r="A290" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>35.48</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="C290" s="2">
         <v>26645728463</v>
@@ -5957,12 +6168,12 @@
         <v>562</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291">
       <c r="A291" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>77.69</v>
+        <v>77.689999999999998</v>
       </c>
       <c r="C291" s="2">
         <v>10893443758</v>
@@ -5971,12 +6182,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292">
       <c r="A292" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>91.48</v>
+        <v>91.480000000000004</v>
       </c>
       <c r="C292" s="2">
         <v>29164535402</v>
@@ -5985,12 +6196,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293">
       <c r="A293" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>87.40000000000001</v>
+        <v>87.400000000000006</v>
       </c>
       <c r="C293" s="2">
         <v>19396021951</v>
@@ -5999,7 +6210,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294">
       <c r="A294" s="1" t="s">
         <v>296</v>
       </c>
@@ -6013,12 +6224,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295">
       <c r="A295" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>174.95</v>
+        <v>174.94999999999999</v>
       </c>
       <c r="C295" s="2">
         <v>20501060394</v>
@@ -6027,12 +6238,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296">
       <c r="A296" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>139.1</v>
+        <v>139.09999999999999</v>
       </c>
       <c r="C296" s="2">
         <v>46746649655</v>
@@ -6041,12 +6252,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297">
       <c r="A297" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>52.87</v>
+        <v>52.869999999999997</v>
       </c>
       <c r="C297" s="2">
         <v>12865435140</v>
@@ -6055,12 +6266,12 @@
         <v>377</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298">
       <c r="A298" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>259.41</v>
+        <v>259.41000000000003</v>
       </c>
       <c r="C298" s="2">
         <v>191718339601</v>
@@ -6069,12 +6280,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299">
       <c r="A299" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>60.79</v>
+        <v>60.789999999999999</v>
       </c>
       <c r="C299" s="2">
         <v>34571362570</v>
@@ -6083,12 +6294,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300">
       <c r="A300" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>335.8</v>
+        <v>335.80000000000001</v>
       </c>
       <c r="C300" s="2">
         <v>48194022800</v>
@@ -6097,12 +6308,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301">
       <c r="A301" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>296.16</v>
+        <v>296.16000000000003</v>
       </c>
       <c r="C301" s="2">
         <v>54924157695</v>
@@ -6111,12 +6322,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302">
       <c r="A302" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>64.86</v>
+        <v>64.859999999999999</v>
       </c>
       <c r="C302" s="2">
         <v>90243242756</v>
@@ -6125,12 +6336,12 @@
         <v>307</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303">
       <c r="A303" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>92.17</v>
+        <v>92.170000000000002</v>
       </c>
       <c r="C303" s="2">
         <v>124935951248</v>
@@ -6139,12 +6350,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304">
       <c r="A304" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>63.63</v>
+        <v>63.630000000000003</v>
       </c>
       <c r="C304" s="2">
         <v>52775646438</v>
@@ -6153,12 +6364,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305">
       <c r="A305" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>30.62</v>
+        <v>30.620000000000001</v>
       </c>
       <c r="C305" s="2">
         <v>12712329468</v>
@@ -6167,7 +6378,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306">
       <c r="A306" s="1" t="s">
         <v>308</v>
       </c>
@@ -6181,12 +6392,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307">
       <c r="A307" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>83.81999999999999</v>
+        <v>83.819999999999993</v>
       </c>
       <c r="C307" s="2">
         <v>22379734493</v>
@@ -6195,12 +6406,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308">
       <c r="A308" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>276.52</v>
+        <v>276.51999999999998</v>
       </c>
       <c r="C308" s="2">
         <v>10325807926</v>
@@ -6209,12 +6420,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309">
       <c r="A309" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>322.76</v>
+        <v>322.75999999999999</v>
       </c>
       <c r="C309" s="2">
         <v>19947346572</v>
@@ -6223,7 +6434,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310">
       <c r="A310" s="1" t="s">
         <v>312</v>
       </c>
@@ -6237,12 +6448,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311">
       <c r="A311" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>131.52</v>
+        <v>131.52000000000001</v>
       </c>
       <c r="C311" s="2">
         <v>74053835091</v>
@@ -6251,7 +6462,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312">
       <c r="A312" s="1" t="s">
         <v>314</v>
       </c>
@@ -6265,12 +6476,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313">
       <c r="A313" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>42.41</v>
+        <v>42.409999999999997</v>
       </c>
       <c r="C313" s="2">
         <v>78720174893</v>
@@ -6279,12 +6490,12 @@
         <v>470</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314">
       <c r="A314" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>45.66</v>
+        <v>45.659999999999997</v>
       </c>
       <c r="C314" s="2">
         <v>16489161369</v>
@@ -6293,12 +6504,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315">
       <c r="A315" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>86.09999999999999</v>
+        <v>86.099999999999994</v>
       </c>
       <c r="C315" s="2">
         <v>47181447239</v>
@@ -6307,12 +6518,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316">
       <c r="A316" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>97.05</v>
+        <v>97.049999999999997</v>
       </c>
       <c r="C316" s="2">
         <v>245400007903</v>
@@ -6321,7 +6532,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317">
       <c r="A317" s="1" t="s">
         <v>319</v>
       </c>
@@ -6335,12 +6546,12 @@
         <v>911</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318">
       <c r="A318" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>78.15000000000001</v>
+        <v>78.150000000000006</v>
       </c>
       <c r="C318" s="2">
         <v>135792350715</v>
@@ -6349,12 +6560,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319">
       <c r="A319" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>452.28</v>
+        <v>452.27999999999997</v>
       </c>
       <c r="C319" s="2">
         <v>36919152663</v>
@@ -6363,12 +6574,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320">
       <c r="A320" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>280.65</v>
+        <v>280.64999999999998</v>
       </c>
       <c r="C320" s="2">
         <v>2027086954232</v>
@@ -6377,12 +6588,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321">
       <c r="A321" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>223.04</v>
+        <v>223.03999999999999</v>
       </c>
       <c r="C321" s="2">
         <v>36161281356</v>
@@ -6391,12 +6602,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322">
       <c r="A322" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>159.93</v>
+        <v>159.93000000000001</v>
       </c>
       <c r="C322" s="2">
         <v>29446008913</v>
@@ -6405,7 +6616,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323">
       <c r="A323" s="1" t="s">
         <v>325</v>
       </c>
@@ -6419,12 +6630,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324">
       <c r="A324" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>60.38</v>
+        <v>60.380000000000003</v>
       </c>
       <c r="C324" s="2">
         <v>65332675816</v>
@@ -6433,7 +6644,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325">
       <c r="A325" s="1" t="s">
         <v>327</v>
       </c>
@@ -6447,12 +6658,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326">
       <c r="A326" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>16.141</v>
+        <v>16.140999999999998</v>
       </c>
       <c r="C326" s="2">
         <v>8860745360</v>
@@ -6461,12 +6672,12 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327">
       <c r="A327" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B327" s="2">
-        <v>8.48</v>
+        <v>8.4800000000000004</v>
       </c>
       <c r="C327" s="2">
         <v>4157956514</v>
@@ -6475,12 +6686,12 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328">
       <c r="A328" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B328" s="2">
-        <v>11.8</v>
+        <v>11.800000000000001</v>
       </c>
       <c r="C328" s="2">
         <v>2521711925</v>
@@ -6489,12 +6700,12 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329">
       <c r="A329" s="1" t="s">
         <v>331</v>
       </c>
       <c r="B329" s="2">
-        <v>161.02</v>
+        <v>161.02000000000001</v>
       </c>
       <c r="C329" s="2">
         <v>15311667085</v>
@@ -6503,12 +6714,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330">
       <c r="A330" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>82.86</v>
+        <v>82.859999999999999</v>
       </c>
       <c r="C330" s="2">
         <v>157984766736</v>
@@ -6517,12 +6728,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331">
       <c r="A331" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>60.45</v>
+        <v>60.450000000000003</v>
       </c>
       <c r="C331" s="2">
         <v>47306999507</v>
@@ -6531,12 +6742,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332">
       <c r="A332" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>192.076</v>
+        <v>192.07599999999999</v>
       </c>
       <c r="C332" s="2">
         <v>85450479873</v>
@@ -6545,12 +6756,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333">
       <c r="A333" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>28.94</v>
+        <v>28.940000000000001</v>
       </c>
       <c r="C333" s="2">
         <v>11631321205</v>
@@ -6559,12 +6770,12 @@
         <v>689</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334">
       <c r="A334" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>110.85</v>
+        <v>110.84999999999999</v>
       </c>
       <c r="C334" s="2">
         <v>169557760140</v>
@@ -6573,7 +6784,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335">
       <c r="A335" s="1" t="s">
         <v>337</v>
       </c>
@@ -6587,12 +6798,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336">
       <c r="A336" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>24.26</v>
+        <v>24.260000000000002</v>
       </c>
       <c r="C336" s="2">
         <v>8821197097</v>
@@ -6601,12 +6812,12 @@
         <v>822</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337">
       <c r="A337" s="1" t="s">
         <v>339</v>
       </c>
       <c r="B337" s="2">
-        <v>499.77</v>
+        <v>499.76999999999998</v>
       </c>
       <c r="C337" s="2">
         <v>76170322348</v>
@@ -6615,12 +6826,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338">
       <c r="A338" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B338" s="2">
-        <v>17.22</v>
+        <v>17.219999999999999</v>
       </c>
       <c r="C338" s="2">
         <v>6818131279</v>
@@ -6629,12 +6840,12 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339">
       <c r="A339" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>508.35</v>
+        <v>508.35000000000002</v>
       </c>
       <c r="C339" s="2">
         <v>99211262970</v>
@@ -6643,12 +6854,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340">
       <c r="A340" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>39.4</v>
+        <v>39.399999999999999</v>
       </c>
       <c r="C340" s="2">
         <v>9255395441</v>
@@ -6657,12 +6868,12 @@
         <v>506</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341">
       <c r="A341" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>226.3</v>
+        <v>226.30000000000001</v>
       </c>
       <c r="C341" s="2">
         <v>58152793240</v>
@@ -6671,12 +6882,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342">
       <c r="A342" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>66.2</v>
+        <v>66.200000000000003</v>
       </c>
       <c r="C342" s="2">
         <v>14983673457</v>
@@ -6685,7 +6896,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343">
       <c r="A343" s="1" t="s">
         <v>345</v>
       </c>
@@ -6699,7 +6910,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344">
       <c r="A344" s="1" t="s">
         <v>346</v>
       </c>
@@ -6713,12 +6924,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345">
       <c r="A345" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>160.58</v>
+        <v>160.58000000000001</v>
       </c>
       <c r="C345" s="2">
         <v>408807237723</v>
@@ -6727,12 +6938,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346">
       <c r="A346" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>4451.6</v>
+        <v>4451.6000000000004</v>
       </c>
       <c r="C346" s="2">
         <v>14404965685</v>
@@ -6741,12 +6952,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347">
       <c r="A347" s="1" t="s">
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>19.55</v>
+        <v>19.550000000000001</v>
       </c>
       <c r="C347" s="2">
         <v>8345921726</v>
@@ -6755,12 +6966,12 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348">
       <c r="A348" s="1" t="s">
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>16.2</v>
+        <v>16.199999999999999</v>
       </c>
       <c r="C348" s="2">
         <v>9572370336</v>
@@ -6769,12 +6980,12 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349">
       <c r="A349" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>16.47</v>
+        <v>16.469999999999999</v>
       </c>
       <c r="C349" s="2">
         <v>9666790558</v>
@@ -6783,12 +6994,12 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350">
       <c r="A350" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>72.04000000000001</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="C350" s="2">
         <v>42776101728</v>
@@ -6797,12 +7008,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351">
       <c r="A351" s="1" t="s">
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>277.3</v>
+        <v>277.30000000000001</v>
       </c>
       <c r="C351" s="2">
         <v>30965310056</v>
@@ -6811,12 +7022,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352">
       <c r="A352" s="1" t="s">
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>58.06</v>
+        <v>58.060000000000002</v>
       </c>
       <c r="C352" s="2">
         <v>26467663083</v>
@@ -6825,12 +7036,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353">
       <c r="A353" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>66.78</v>
+        <v>66.780000000000001</v>
       </c>
       <c r="C353" s="2">
         <v>13759181866</v>
@@ -6839,12 +7050,12 @@
         <v>298</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354">
       <c r="A354" s="1" t="s">
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>74.58</v>
+        <v>74.579999999999998</v>
       </c>
       <c r="C354" s="2">
         <v>191771049185</v>
@@ -6853,12 +7064,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355">
       <c r="A355" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>658.7</v>
+        <v>658.70000000000005</v>
       </c>
       <c r="C355" s="2">
         <v>45052183637</v>
@@ -6867,12 +7078,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356">
       <c r="A356" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>69.93000000000001</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="C356" s="2">
         <v>30069981986</v>
@@ -6881,12 +7092,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357">
       <c r="A357" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>62.99</v>
+        <v>62.990000000000002</v>
       </c>
       <c r="C357" s="2">
         <v>57649099237</v>
@@ -6895,12 +7106,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358">
       <c r="A358" s="1" t="s">
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>330.92</v>
+        <v>330.92000000000002</v>
       </c>
       <c r="C358" s="2">
         <v>20141906638</v>
@@ -6909,7 +7120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359">
       <c r="A359" s="1" t="s">
         <v>361</v>
       </c>
@@ -6923,7 +7134,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360">
       <c r="A360" s="1" t="s">
         <v>362</v>
       </c>
@@ -6937,12 +7148,12 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361">
       <c r="A361" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>84.59</v>
+        <v>84.590000000000003</v>
       </c>
       <c r="C361" s="2">
         <v>29261563608</v>
@@ -6951,12 +7162,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362">
       <c r="A362" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B362" s="2">
-        <v>26.44</v>
+        <v>26.440000000000001</v>
       </c>
       <c r="C362" s="2">
         <v>14314173064</v>
@@ -6965,12 +7176,12 @@
         <v>754</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363">
       <c r="A363" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>62.9</v>
+        <v>62.899999999999999</v>
       </c>
       <c r="C363" s="2">
         <v>31761724537</v>
@@ -6979,7 +7190,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364">
       <c r="A364" s="1" t="s">
         <v>366</v>
       </c>
@@ -6993,12 +7204,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365">
       <c r="A365" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>55.4</v>
+        <v>55.399999999999999</v>
       </c>
       <c r="C365" s="2">
         <v>300333902710</v>
@@ -7007,12 +7218,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366">
       <c r="A366" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>67.7</v>
+        <v>67.700000000000003</v>
       </c>
       <c r="C366" s="2">
         <v>17474776618</v>
@@ -7021,12 +7232,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367">
       <c r="A367" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>148.77</v>
+        <v>148.77000000000001</v>
       </c>
       <c r="C367" s="2">
         <v>352398643594</v>
@@ -7035,7 +7246,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368">
       <c r="A368" s="1" t="s">
         <v>370</v>
       </c>
@@ -7049,12 +7260,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369">
       <c r="A369" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>250.55</v>
+        <v>250.55000000000001</v>
       </c>
       <c r="C369" s="2">
         <v>32741068396</v>
@@ -7063,12 +7274,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370">
       <c r="A370" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>45.2</v>
+        <v>45.200000000000003</v>
       </c>
       <c r="C370" s="2">
         <v>10545770618</v>
@@ -7077,12 +7288,12 @@
         <v>441</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371">
       <c r="A371" s="1" t="s">
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>143.07</v>
+        <v>143.06999999999999</v>
       </c>
       <c r="C371" s="2">
         <v>13676268673</v>
@@ -7091,12 +7302,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372">
       <c r="A372" s="1" t="s">
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>146.77</v>
+        <v>146.77000000000001</v>
       </c>
       <c r="C372" s="2">
         <v>18734945368</v>
@@ -7105,12 +7316,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373">
       <c r="A373" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>124.76</v>
+        <v>124.76000000000001</v>
       </c>
       <c r="C373" s="2">
         <v>92494656535</v>
@@ -7119,12 +7330,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374">
       <c r="A374" s="1" t="s">
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>97.31</v>
+        <v>97.310000000000002</v>
       </c>
       <c r="C374" s="2">
         <v>151560740387</v>
@@ -7133,12 +7344,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375">
       <c r="A375" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>165.35</v>
+        <v>165.34999999999999</v>
       </c>
       <c r="C375" s="2">
         <v>69272081868</v>
@@ -7147,12 +7358,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376">
       <c r="A376" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>46.9</v>
+        <v>46.899999999999999</v>
       </c>
       <c r="C376" s="2">
         <v>7964387934</v>
@@ -7161,12 +7372,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377">
       <c r="A377" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>73.94</v>
+        <v>73.939999999999998</v>
       </c>
       <c r="C377" s="2">
         <v>8063820764</v>
@@ -7175,7 +7386,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378">
       <c r="A378" s="1" t="s">
         <v>380</v>
       </c>
@@ -7189,7 +7400,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379">
       <c r="A379" s="1" t="s">
         <v>381</v>
       </c>
@@ -7203,12 +7414,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380">
       <c r="A380" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>43.1</v>
+        <v>43.100000000000001</v>
       </c>
       <c r="C380" s="2">
         <v>5705261229</v>
@@ -7217,12 +7428,12 @@
         <v>463</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381">
       <c r="A381" s="1" t="s">
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>100.65</v>
+        <v>100.65000000000001</v>
       </c>
       <c r="C381" s="2">
         <v>36239512302</v>
@@ -7231,7 +7442,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382">
       <c r="A382" s="1" t="s">
         <v>384</v>
       </c>
@@ -7245,12 +7456,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383">
       <c r="A383" s="1" t="s">
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>85.11</v>
+        <v>85.109999999999999</v>
       </c>
       <c r="C383" s="2">
         <v>40537588042</v>
@@ -7259,12 +7470,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384">
       <c r="A384" s="1" t="s">
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>60.16</v>
+        <v>60.159999999999997</v>
       </c>
       <c r="C384" s="2">
         <v>4016466748</v>
@@ -7273,12 +7484,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385">
       <c r="A385" s="1" t="s">
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>135.36</v>
+        <v>135.36000000000001</v>
       </c>
       <c r="C385" s="2">
         <v>19879022993</v>
@@ -7287,12 +7498,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386">
       <c r="A386" s="1" t="s">
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>223.6</v>
+        <v>223.59999999999999</v>
       </c>
       <c r="C386" s="2">
         <v>52830785844</v>
@@ -7301,12 +7512,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387">
       <c r="A387" s="1" t="s">
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>75.95999999999999</v>
+        <v>75.959999999999994</v>
       </c>
       <c r="C387" s="2">
         <v>87539864086</v>
@@ -7315,12 +7526,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388">
       <c r="A388" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>136.99</v>
+        <v>136.99000000000001</v>
       </c>
       <c r="C388" s="2">
         <v>157240680438</v>
@@ -7329,12 +7540,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389">
       <c r="A389" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>100.01</v>
+        <v>100.01000000000001</v>
       </c>
       <c r="C389" s="2">
         <v>10690670325</v>
@@ -7343,12 +7554,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390">
       <c r="A390" s="1" t="s">
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>35.49</v>
+        <v>35.490000000000002</v>
       </c>
       <c r="C390" s="2">
         <v>9054288719</v>
@@ -7357,12 +7568,12 @@
         <v>562</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391">
       <c r="A391" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>289.35</v>
+        <v>289.35000000000002</v>
       </c>
       <c r="C391" s="2">
         <v>11488517200</v>
@@ -7371,7 +7582,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392">
       <c r="A392" s="1" t="s">
         <v>394</v>
       </c>
@@ -7385,12 +7596,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393">
       <c r="A393" s="1" t="s">
         <v>395</v>
       </c>
       <c r="B393" s="2">
-        <v>632.35</v>
+        <v>632.35000000000002</v>
       </c>
       <c r="C393" s="2">
         <v>68928081501</v>
@@ -7399,12 +7610,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394">
       <c r="A394" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>19.33</v>
+        <v>19.329999999999998</v>
       </c>
       <c r="C394" s="2">
         <v>18103631934</v>
@@ -7413,12 +7624,12 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395">
       <c r="A395" s="1" t="s">
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>81.09</v>
+        <v>81.090000000000003</v>
       </c>
       <c r="C395" s="2">
         <v>9087354228</v>
@@ -7427,12 +7638,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396">
       <c r="A396" s="1" t="s">
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>93.39</v>
+        <v>93.390000000000001</v>
       </c>
       <c r="C396" s="2">
         <v>19494011148</v>
@@ -7441,12 +7652,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397">
       <c r="A397" s="1" t="s">
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>96.8</v>
+        <v>96.799999999999997</v>
       </c>
       <c r="C397" s="2">
         <v>7114458094</v>
@@ -7455,12 +7666,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398">
       <c r="A398" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>219.17</v>
+        <v>219.16999999999999</v>
       </c>
       <c r="C398" s="2">
         <v>33183162204</v>
@@ -7469,12 +7680,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399">
       <c r="A399" s="1" t="s">
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>203.4</v>
+        <v>203.40000000000001</v>
       </c>
       <c r="C399" s="2">
         <v>23546172685</v>
@@ -7483,12 +7694,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400">
       <c r="A400" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>37.08</v>
+        <v>37.079999999999998</v>
       </c>
       <c r="C400" s="2">
         <v>18246115037</v>
@@ -7497,12 +7708,12 @@
         <v>538</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401">
       <c r="A401" s="1" t="s">
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>415.92</v>
+        <v>415.92000000000002</v>
       </c>
       <c r="C401" s="2">
         <v>43802154281</v>
@@ -7511,12 +7722,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402">
       <c r="A402" s="1" t="s">
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>77.51000000000001</v>
+        <v>77.510000000000005</v>
       </c>
       <c r="C402" s="2">
         <v>27399178483</v>
@@ -7525,7 +7736,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403">
       <c r="A403" s="1" t="s">
         <v>405</v>
       </c>
@@ -7539,12 +7750,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404">
       <c r="A404" s="1" t="s">
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>96.39</v>
+        <v>96.390000000000001</v>
       </c>
       <c r="C404" s="2">
         <v>141976236515</v>
@@ -7553,12 +7764,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405">
       <c r="A405" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>327.77</v>
+        <v>327.76999999999998</v>
       </c>
       <c r="C405" s="2">
         <v>35059659173</v>
@@ -7567,12 +7778,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406">
       <c r="A406" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>82.59999999999999</v>
+        <v>82.599999999999994</v>
       </c>
       <c r="C406" s="2">
         <v>94002634026</v>
@@ -7581,12 +7792,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407">
       <c r="A407" s="1" t="s">
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>66.22</v>
+        <v>66.219999999999999</v>
       </c>
       <c r="C407" s="2">
         <v>121210939928</v>
@@ -7595,12 +7806,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408">
       <c r="A408" s="1" t="s">
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>57.53</v>
+        <v>57.530000000000001</v>
       </c>
       <c r="C408" s="2">
         <v>8258088854</v>
@@ -7609,7 +7820,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409">
       <c r="A409" s="1" t="s">
         <v>411</v>
       </c>
@@ -7623,12 +7834,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410">
       <c r="A410" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>425.82</v>
+        <v>425.81999999999999</v>
       </c>
       <c r="C410" s="2">
         <v>25721374616</v>
@@ -7637,12 +7848,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411">
       <c r="A411" s="1" t="s">
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>133.32</v>
+        <v>133.31999999999999</v>
       </c>
       <c r="C411" s="2">
         <v>14671175204</v>
@@ -7651,12 +7862,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412">
       <c r="A412" s="1" t="s">
         <v>414</v>
       </c>
       <c r="B412" s="2">
-        <v>34.46</v>
+        <v>34.460000000000001</v>
       </c>
       <c r="C412" s="2">
         <v>50471928794</v>
@@ -7665,12 +7876,12 @@
         <v>579</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413">
       <c r="A413" s="1" t="s">
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>47.34</v>
+        <v>47.340000000000003</v>
       </c>
       <c r="C413" s="2">
         <v>3088918568</v>
@@ -7679,7 +7890,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414">
       <c r="A414" s="1" t="s">
         <v>416</v>
       </c>
@@ -7693,7 +7904,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415">
       <c r="A415" s="1" t="s">
         <v>417</v>
       </c>
@@ -7707,12 +7918,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416">
       <c r="A416" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>74.37</v>
+        <v>74.370000000000005</v>
       </c>
       <c r="C416" s="2">
         <v>78056241103</v>
@@ -7721,12 +7932,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417">
       <c r="A417" s="1" t="s">
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>100.46</v>
+        <v>100.45999999999999</v>
       </c>
       <c r="C417" s="2">
         <v>32144628839</v>
@@ -7735,12 +7946,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418">
       <c r="A418" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>360.99</v>
+        <v>360.99000000000001</v>
       </c>
       <c r="C418" s="2">
         <v>124175127408</v>
@@ -7749,12 +7960,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419">
       <c r="A419" s="1" t="s">
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>149.43</v>
+        <v>149.43000000000001</v>
       </c>
       <c r="C419" s="2">
         <v>46358012163</v>
@@ -7763,12 +7974,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420">
       <c r="A420" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>210.2</v>
+        <v>210.19999999999999</v>
       </c>
       <c r="C420" s="2">
         <v>21457876659</v>
@@ -7777,12 +7988,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421">
       <c r="A421" s="1" t="s">
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>64.12</v>
+        <v>64.120000000000005</v>
       </c>
       <c r="C421" s="2">
         <v>23879737303</v>
@@ -7791,12 +8002,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422">
       <c r="A422" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>78.31999999999999</v>
+        <v>78.319999999999993</v>
       </c>
       <c r="C422" s="2">
         <v>16800144582</v>
@@ -7805,7 +8016,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423">
       <c r="A423" s="1" t="s">
         <v>425</v>
       </c>
@@ -7819,12 +8030,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424">
       <c r="A424" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>110.32</v>
+        <v>110.31999999999999</v>
       </c>
       <c r="C424" s="2">
         <v>16978074598</v>
@@ -7833,12 +8044,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425">
       <c r="A425" s="1" t="s">
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>99.7</v>
+        <v>99.700000000000003</v>
       </c>
       <c r="C425" s="2">
         <v>16503344821</v>
@@ -7847,12 +8058,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426">
       <c r="A426" s="1" t="s">
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>30.13</v>
+        <v>30.129999999999999</v>
       </c>
       <c r="C426" s="2">
         <v>15437864066</v>
@@ -7861,12 +8072,12 @@
         <v>662</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427">
       <c r="A427" s="1" t="s">
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>209.3</v>
+        <v>209.30000000000001</v>
       </c>
       <c r="C427" s="2">
         <v>76842455635</v>
@@ -7875,12 +8086,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428">
       <c r="A428" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>87.29000000000001</v>
+        <v>87.290000000000006</v>
       </c>
       <c r="C428" s="2">
         <v>45218268721</v>
@@ -7889,12 +8100,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429">
       <c r="A429" s="1" t="s">
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>21.4</v>
+        <v>21.399999999999999</v>
       </c>
       <c r="C429" s="2">
         <v>154487579941</v>
@@ -7903,12 +8114,12 @@
         <v>932</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430">
       <c r="A430" s="1" t="s">
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>57.7</v>
+        <v>57.700000000000003</v>
       </c>
       <c r="C430" s="2">
         <v>12617035124</v>
@@ -7917,12 +8128,12 @@
         <v>345</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431">
       <c r="A431" s="1" t="s">
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>549.15</v>
+        <v>549.14999999999998</v>
       </c>
       <c r="C431" s="2">
         <v>29825651631</v>
@@ -7931,12 +8142,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432">
       <c r="A432" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>384.52</v>
+        <v>384.51999999999998</v>
       </c>
       <c r="C432" s="2">
         <v>18838626012</v>
@@ -7945,12 +8156,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433">
       <c r="A433" s="1" t="s">
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>119.68</v>
+        <v>119.68000000000001</v>
       </c>
       <c r="C433" s="2">
         <v>38040603829</v>
@@ -7959,12 +8170,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434">
       <c r="A434" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>49.3</v>
+        <v>49.299999999999997</v>
       </c>
       <c r="C434" s="2">
         <v>63831459919</v>
@@ -7973,12 +8184,12 @@
         <v>404</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435">
       <c r="A435" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>263.73</v>
+        <v>263.73000000000002</v>
       </c>
       <c r="C435" s="2">
         <v>12005242346</v>
@@ -7987,12 +8198,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436">
       <c r="A436" s="1" t="s">
         <v>438</v>
       </c>
       <c r="B436" s="2">
-        <v>152.29</v>
+        <v>152.28999999999999</v>
       </c>
       <c r="C436" s="2">
         <v>69942933885</v>
@@ -8001,12 +8212,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437">
       <c r="A437" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>134.99</v>
+        <v>134.99000000000001</v>
       </c>
       <c r="C437" s="2">
         <v>16399724385</v>
@@ -8015,12 +8226,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438">
       <c r="A438" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>61.55</v>
+        <v>61.549999999999997</v>
       </c>
       <c r="C438" s="2">
         <v>70611485845</v>
@@ -8029,12 +8240,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439">
       <c r="A439" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>564.02</v>
+        <v>564.01999999999998</v>
       </c>
       <c r="C439" s="2">
         <v>226131459787</v>
@@ -8043,12 +8254,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440">
       <c r="A440" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>138.9</v>
+        <v>138.90000000000001</v>
       </c>
       <c r="C440" s="2">
         <v>170577032311</v>
@@ -8057,12 +8268,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441">
       <c r="A441" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>32.34</v>
+        <v>32.340000000000003</v>
       </c>
       <c r="C441" s="2">
         <v>8018181917</v>
@@ -8071,7 +8282,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442">
       <c r="A442" s="1" t="s">
         <v>444</v>
       </c>
@@ -8085,7 +8296,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443">
       <c r="A443" s="1" t="s">
         <v>445</v>
       </c>
@@ -8099,12 +8310,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444">
       <c r="A444" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>213.77</v>
+        <v>213.77000000000001</v>
       </c>
       <c r="C444" s="2">
         <v>23286943304</v>
@@ -8113,12 +8324,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445">
       <c r="A445" s="1" t="s">
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>84.54000000000001</v>
+        <v>84.540000000000006</v>
       </c>
       <c r="C445" s="2">
         <v>31599192478</v>
@@ -8127,7 +8338,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446">
       <c r="A446" s="1" t="s">
         <v>448</v>
       </c>
@@ -8141,12 +8352,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447">
       <c r="A447" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>128.2</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="C447" s="2">
         <v>14890828118</v>
@@ -8155,12 +8366,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448">
       <c r="A448" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>37.1</v>
+        <v>37.100000000000001</v>
       </c>
       <c r="C448" s="2">
         <v>28734566924</v>
@@ -8169,12 +8380,12 @@
         <v>538</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449">
       <c r="A449" s="1" t="s">
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>156.39</v>
+        <v>156.38999999999999</v>
       </c>
       <c r="C449" s="2">
         <v>145762129450</v>
@@ -8183,12 +8394,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450">
       <c r="A450" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B450" s="2">
-        <v>61.73</v>
+        <v>61.729999999999997</v>
       </c>
       <c r="C450" s="2">
         <v>13747101511</v>
@@ -8197,12 +8408,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451">
       <c r="A451" s="1" t="s">
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>360.17</v>
+        <v>360.17000000000002</v>
       </c>
       <c r="C451" s="2">
         <v>14597559254</v>
@@ -8211,12 +8422,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452">
       <c r="A452" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>8.289999999999999</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="C452" s="2">
         <v>3912475819</v>
@@ -8225,12 +8436,12 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453">
       <c r="A453" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>9.4</v>
+        <v>9.4000000000000004</v>
       </c>
       <c r="C453" s="2">
         <v>3955181829</v>
@@ -8239,12 +8450,12 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454">
       <c r="A454" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>37.21</v>
+        <v>37.210000000000001</v>
       </c>
       <c r="C454" s="2">
         <v>12435123567</v>
@@ -8253,7 +8464,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455">
       <c r="A455" s="1" t="s">
         <v>457</v>
       </c>
@@ -8267,12 +8478,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456">
       <c r="A456" s="1" t="s">
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>107.57</v>
+        <v>107.56999999999999</v>
       </c>
       <c r="C456" s="2">
         <v>8892156623</v>
@@ -8281,12 +8492,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457">
       <c r="A457" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>387.91</v>
+        <v>387.91000000000003</v>
       </c>
       <c r="C457" s="2">
         <v>20404281379</v>
@@ -8295,12 +8506,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458">
       <c r="A458" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>522.67</v>
+        <v>522.66999999999996</v>
       </c>
       <c r="C458" s="2">
         <v>491481069272</v>
@@ -8309,12 +8520,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459">
       <c r="A459" s="1" t="s">
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>33.92</v>
+        <v>33.920000000000002</v>
       </c>
       <c r="C459" s="2">
         <v>6878507414</v>
@@ -8323,12 +8534,12 @@
         <v>588</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460">
       <c r="A460" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>216.7</v>
+        <v>216.69999999999999</v>
       </c>
       <c r="C460" s="2">
         <v>137388578710</v>
@@ -8337,12 +8548,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461">
       <c r="A461" s="1" t="s">
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>190.7</v>
+        <v>190.69999999999999</v>
       </c>
       <c r="C461" s="2">
         <v>164222082129</v>
@@ -8351,7 +8562,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462">
       <c r="A462" s="1" t="s">
         <v>464</v>
       </c>
@@ -8365,7 +8576,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463">
       <c r="A463" s="1" t="s">
         <v>465</v>
       </c>
@@ -8379,12 +8590,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464">
       <c r="A464" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>212.65</v>
+        <v>212.65000000000001</v>
       </c>
       <c r="C464" s="2">
         <v>458414858858</v>
@@ -8393,7 +8604,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465">
       <c r="A465" s="1" t="s">
         <v>467</v>
       </c>
@@ -8407,12 +8618,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466">
       <c r="A466" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>47.99</v>
+        <v>47.990000000000002</v>
       </c>
       <c r="C466" s="2">
         <v>18665749253</v>
@@ -8421,12 +8632,12 @@
         <v>415</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467">
       <c r="A467" s="1" t="s">
         <v>469</v>
       </c>
       <c r="B467" s="2">
-        <v>111.24</v>
+        <v>111.23999999999999</v>
       </c>
       <c r="C467" s="2">
         <v>45479138141</v>
@@ -8435,7 +8646,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468">
       <c r="A468" s="1" t="s">
         <v>470</v>
       </c>
@@ -8449,12 +8660,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469">
       <c r="A469" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B469" s="2">
-        <v>29.53</v>
+        <v>29.530000000000001</v>
       </c>
       <c r="C469" s="2">
         <v>5639586940</v>
@@ -8463,12 +8674,12 @@
         <v>675</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470">
       <c r="A470" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>185.7</v>
+        <v>185.69999999999999</v>
       </c>
       <c r="C470" s="2">
         <v>28773753648</v>
@@ -8477,12 +8688,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471">
       <c r="A471" s="1" t="s">
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>180.85</v>
+        <v>180.84999999999999</v>
       </c>
       <c r="C471" s="2">
         <v>20088657442</v>
@@ -8491,12 +8702,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472">
       <c r="A472" s="1" t="s">
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>297.78</v>
+        <v>297.77999999999997</v>
       </c>
       <c r="C472" s="2">
         <v>75471193295</v>
@@ -8505,12 +8716,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473">
       <c r="A473" s="1" t="s">
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>52.26</v>
+        <v>52.259999999999998</v>
       </c>
       <c r="C473" s="2">
         <v>20857609481</v>
@@ -8519,12 +8730,12 @@
         <v>381</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474">
       <c r="A474" s="1" t="s">
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>52.1</v>
+        <v>52.100000000000001</v>
       </c>
       <c r="C474" s="2">
         <v>217069557712</v>
@@ -8533,7 +8744,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475">
       <c r="A475" s="1" t="s">
         <v>477</v>
       </c>
@@ -8547,12 +8758,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476">
       <c r="A476" s="1" t="s">
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>362.52</v>
+        <v>362.51999999999998</v>
       </c>
       <c r="C476" s="2">
         <v>21173491821</v>
@@ -8561,12 +8772,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477">
       <c r="A477" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>39.22</v>
+        <v>39.219999999999999</v>
       </c>
       <c r="C477" s="2">
         <v>32834531069</v>
@@ -8575,12 +8786,12 @@
         <v>508</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478">
       <c r="A478" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>45.48</v>
+        <v>45.479999999999997</v>
       </c>
       <c r="C478" s="2">
         <v>14543573568</v>
@@ -8589,12 +8800,12 @@
         <v>438</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479">
       <c r="A479" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>102.29</v>
+        <v>102.29000000000001</v>
       </c>
       <c r="C479" s="2">
         <v>32371126785</v>
@@ -8603,12 +8814,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480">
       <c r="A480" s="1" t="s">
         <v>482</v>
       </c>
       <c r="B480" s="2">
-        <v>84.65000000000001</v>
+        <v>84.650000000000006</v>
       </c>
       <c r="C480" s="2">
         <v>38446519988</v>
@@ -8617,12 +8828,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481">
       <c r="A481" s="1" t="s">
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>41.38</v>
+        <v>41.380000000000003</v>
       </c>
       <c r="C481" s="2">
         <v>159409668856</v>
@@ -8631,12 +8842,12 @@
         <v>482</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482">
       <c r="A482" s="1" t="s">
         <v>484</v>
       </c>
       <c r="B482" s="2">
-        <v>164.58</v>
+        <v>164.58000000000001</v>
       </c>
       <c r="C482" s="2">
         <v>9233895655</v>
@@ -8645,7 +8856,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483">
       <c r="A483" s="1" t="s">
         <v>485</v>
       </c>
@@ -8659,12 +8870,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484">
       <c r="A484" s="1" t="s">
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>31.46</v>
+        <v>31.460000000000001</v>
       </c>
       <c r="C484" s="2">
         <v>39238680776</v>
@@ -8673,12 +8884,12 @@
         <v>634</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485">
       <c r="A485" s="1" t="s">
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>131.6</v>
+        <v>131.59999999999999</v>
       </c>
       <c r="C485" s="2">
         <v>350944919539</v>
@@ -8687,12 +8898,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486">
       <c r="A486" s="1" t="s">
         <v>488</v>
       </c>
       <c r="B486" s="2">
-        <v>69.29000000000001</v>
+        <v>69.290000000000006</v>
       </c>
       <c r="C486" s="2">
         <v>17892839127</v>
@@ -8701,12 +8912,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487">
       <c r="A487" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B487" s="2">
-        <v>40.83</v>
+        <v>40.829999999999998</v>
       </c>
       <c r="C487" s="2">
         <v>10629079632</v>
@@ -8715,12 +8926,12 @@
         <v>488</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488">
       <c r="A488" s="1" t="s">
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>323.55</v>
+        <v>323.55000000000001</v>
       </c>
       <c r="C488" s="2">
         <v>23698207005</v>
@@ -8729,12 +8940,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489">
       <c r="A489" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>16.55</v>
+        <v>16.550000000000001</v>
       </c>
       <c r="C489" s="2">
         <v>6533684981</v>
@@ -8743,12 +8954,12 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490">
       <c r="A490" s="1" t="s">
         <v>492</v>
       </c>
       <c r="B490" s="2">
-        <v>35.24</v>
+        <v>35.240000000000002</v>
       </c>
       <c r="C490" s="2">
         <v>27172950116</v>
@@ -8757,12 +8968,12 @@
         <v>566</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491">
       <c r="A491" s="1" t="s">
         <v>493</v>
       </c>
       <c r="B491" s="2">
-        <v>56.92</v>
+        <v>56.920000000000002</v>
       </c>
       <c r="C491" s="2">
         <v>6854565999</v>
@@ -8771,12 +8982,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492">
       <c r="A492" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>72.8</v>
+        <v>72.799999999999997</v>
       </c>
       <c r="C492" s="2">
         <v>38134417355</v>
@@ -8785,7 +8996,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493">
       <c r="A493" s="1" t="s">
         <v>495</v>
       </c>
@@ -8799,12 +9010,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494">
       <c r="A494" s="1" t="s">
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>89.17</v>
+        <v>89.170000000000002</v>
       </c>
       <c r="C494" s="2">
         <v>366061049474</v>
@@ -8813,12 +9024,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495">
       <c r="A495" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>36.31</v>
+        <v>36.310000000000002</v>
       </c>
       <c r="C495" s="2">
         <v>7964355386</v>
@@ -8827,7 +9038,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496">
       <c r="A496" s="1" t="s">
         <v>498</v>
       </c>
@@ -8841,12 +9052,12 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497">
       <c r="A497" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B497" s="2">
-        <v>80.97</v>
+        <v>80.969999999999999</v>
       </c>
       <c r="C497" s="2">
         <v>14279981177</v>
@@ -8855,7 +9066,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498">
       <c r="A498" s="1" t="s">
         <v>500</v>
       </c>
@@ -8869,7 +9080,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499">
       <c r="A499" s="1" t="s">
         <v>501</v>
       </c>
@@ -8883,12 +9094,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500">
       <c r="A500" s="1" t="s">
         <v>502</v>
       </c>
       <c r="B500" s="2">
-        <v>311.39</v>
+        <v>311.38999999999999</v>
       </c>
       <c r="C500" s="2">
         <v>15804576171</v>
@@ -8897,12 +9108,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501">
       <c r="A501" s="1" t="s">
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>51.2</v>
+        <v>51.200000000000003</v>
       </c>
       <c r="C501" s="2">
         <v>7889897874</v>
@@ -8911,7 +9122,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502">
       <c r="A502" s="1" t="s">
         <v>504</v>
       </c>
@@ -8926,6 +9137,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>